--- a/transform/static/files/order.xlsx
+++ b/transform/static/files/order.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>주문자성명</t>
+          <t>주문자 성명</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -634,13 +634,33 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -709,13 +729,33 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -784,13 +824,33 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -859,13 +919,33 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -934,13 +1014,33 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1009,13 +1109,33 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1084,13 +1204,33 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1159,13 +1299,33 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1234,13 +1394,33 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1309,13 +1489,33 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1384,13 +1584,33 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1459,13 +1679,33 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1534,13 +1774,33 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -1609,13 +1869,33 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1684,13 +1964,33 @@
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1759,13 +2059,33 @@
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1834,13 +2154,33 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1909,13 +2249,33 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1984,13 +2344,33 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -2059,13 +2439,33 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2134,13 +2534,33 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2209,13 +2629,33 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2284,13 +2724,33 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2359,13 +2819,33 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -2434,13 +2914,33 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2509,13 +3009,33 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2584,13 +3104,33 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2659,13 +3199,33 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2734,13 +3294,33 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2809,13 +3389,33 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2884,13 +3484,33 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2959,13 +3579,33 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -3034,13 +3674,33 @@
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -3109,13 +3769,33 @@
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -3184,13 +3864,33 @@
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -3259,13 +3959,33 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -3334,13 +4054,33 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -3409,13 +4149,33 @@
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -3484,13 +4244,33 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -3559,13 +4339,33 @@
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -3634,13 +4434,33 @@
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -3709,13 +4529,33 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -3784,13 +4624,33 @@
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3859,13 +4719,33 @@
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -3934,13 +4814,33 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -4009,13 +4909,33 @@
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -4084,13 +5004,33 @@
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -4159,13 +5099,33 @@
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -4234,13 +5194,33 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -4309,13 +5289,33 @@
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -4384,13 +5384,33 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -4459,13 +5479,33 @@
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -4534,13 +5574,33 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -4609,13 +5669,33 @@
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -4684,13 +5764,33 @@
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -4759,13 +5859,33 @@
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -4834,13 +5954,33 @@
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -4909,13 +6049,33 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -4984,13 +6144,33 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -5059,13 +6239,33 @@
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -5134,13 +6334,33 @@
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -5209,13 +6429,33 @@
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -5284,13 +6524,33 @@
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -5359,13 +6619,33 @@
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -5434,13 +6714,33 @@
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -5509,13 +6809,33 @@
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -5584,13 +6904,33 @@
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -5659,13 +6999,33 @@
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -5734,13 +7094,33 @@
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -5809,13 +7189,33 @@
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -5884,13 +7284,33 @@
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -5959,13 +7379,33 @@
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -6034,13 +7474,33 @@
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -6109,13 +7569,33 @@
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -6184,13 +7664,33 @@
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -6259,13 +7759,33 @@
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -6334,13 +7854,33 @@
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -6409,13 +7949,33 @@
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -6484,13 +8044,33 @@
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -6559,13 +8139,33 @@
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -6634,13 +8234,33 @@
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -6709,13 +8329,33 @@
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -6784,13 +8424,33 @@
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
@@ -6859,13 +8519,33 @@
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -6934,13 +8614,33 @@
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -7009,13 +8709,33 @@
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
@@ -7084,13 +8804,33 @@
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -7159,13 +8899,33 @@
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
@@ -7234,13 +8994,33 @@
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
@@ -7309,13 +9089,33 @@
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
@@ -7384,13 +9184,33 @@
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -7459,13 +9279,33 @@
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -7534,13 +9374,33 @@
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -7609,13 +9469,33 @@
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -7684,13 +9564,33 @@
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -7759,13 +9659,33 @@
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
@@ -7834,13 +9754,33 @@
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
@@ -7909,13 +9849,33 @@
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
@@ -7984,13 +9944,33 @@
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
@@ -8059,13 +10039,33 @@
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
@@ -8134,13 +10134,33 @@
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
@@ -8209,13 +10229,33 @@
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
@@ -8284,13 +10324,33 @@
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
@@ -8359,13 +10419,33 @@
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -8434,13 +10514,33 @@
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
@@ -8509,13 +10609,33 @@
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
@@ -8584,13 +10704,33 @@
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
@@ -8659,13 +10799,33 @@
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
@@ -8734,13 +10894,33 @@
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
@@ -8809,13 +10989,33 @@
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
@@ -8884,13 +11084,33 @@
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
@@ -8959,13 +11179,33 @@
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
@@ -9034,13 +11274,33 @@
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
@@ -9109,13 +11369,33 @@
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
@@ -9184,13 +11464,33 @@
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
@@ -9259,13 +11559,33 @@
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
@@ -9334,13 +11654,33 @@
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
@@ -9409,13 +11749,33 @@
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
@@ -9484,13 +11844,33 @@
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
@@ -9559,13 +11939,33 @@
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
@@ -9634,13 +12034,33 @@
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
@@ -9709,13 +12129,33 @@
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
@@ -9784,13 +12224,33 @@
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
@@ -9859,13 +12319,33 @@
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
@@ -9934,13 +12414,33 @@
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
@@ -10009,13 +12509,33 @@
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
@@ -10084,13 +12604,33 @@
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
@@ -10159,13 +12699,33 @@
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
@@ -10234,13 +12794,33 @@
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
@@ -10309,13 +12889,33 @@
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
@@ -10384,13 +12984,33 @@
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
@@ -10459,13 +13079,33 @@
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
@@ -10534,13 +13174,33 @@
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
@@ -10609,13 +13269,33 @@
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
@@ -10684,13 +13364,33 @@
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
@@ -10759,13 +13459,33 @@
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
@@ -10834,13 +13554,33 @@
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
@@ -10909,13 +13649,33 @@
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
@@ -10984,13 +13744,33 @@
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
@@ -11059,13 +13839,33 @@
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
@@ -11134,13 +13934,33 @@
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
@@ -11209,13 +14029,33 @@
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
@@ -11284,13 +14124,33 @@
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
@@ -11359,13 +14219,33 @@
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
@@ -11434,13 +14314,33 @@
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
@@ -11509,13 +14409,33 @@
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
@@ -11584,13 +14504,33 @@
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
@@ -11659,13 +14599,33 @@
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
@@ -11734,13 +14694,33 @@
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
@@ -11809,13 +14789,33 @@
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
@@ -11884,13 +14884,33 @@
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
@@ -11959,13 +14979,33 @@
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
@@ -12034,13 +15074,33 @@
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
@@ -12109,13 +15169,33 @@
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
@@ -12184,13 +15264,33 @@
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
@@ -12259,13 +15359,33 @@
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
@@ -12334,13 +15454,33 @@
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
@@ -12409,13 +15549,33 @@
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
@@ -12484,13 +15644,33 @@
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
@@ -12559,13 +15739,33 @@
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
@@ -12634,13 +15834,33 @@
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
@@ -12709,13 +15929,33 @@
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
@@ -12784,13 +16024,33 @@
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
@@ -12859,13 +16119,33 @@
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
@@ -12934,13 +16214,33 @@
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
@@ -13009,13 +16309,33 @@
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
@@ -13084,13 +16404,33 @@
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
@@ -13159,13 +16499,33 @@
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
@@ -13234,13 +16594,33 @@
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Seongtae Jang</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>010-6736-2340</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 비둘기공원3길 5-1</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>4층</t>
+        </is>
+      </c>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
